--- a/test.xlsx
+++ b/test.xlsx
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -365,6 +365,14 @@
       </c>
       <c r="B2">
         <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
